--- a/seating-plan.xlsx
+++ b/seating-plan.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>SEATING PLAN FOR MID TERM EXAMINATIONS, DATED: May 10, 2025, TIMINGS: 09:30 a.m. - 11:30 a.m.</t>
   </si>
@@ -107,91 +107,112 @@
     <t>ME003</t>
   </si>
   <si>
+    <t>ECE004</t>
+  </si>
+  <si>
+    <t>ME004</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Appearing</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>CS-101</t>
+  </si>
+  <si>
+    <t>EC-101</t>
+  </si>
+  <si>
+    <t>ME-101</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>UMC Roll Number (if any): _____________________________ Absent Roll Number : _____________________________ Remarks: _____________________________</t>
+  </si>
+  <si>
+    <t>Name of the Invigilator - 1: _____________________________ Employee Code: _____________________________ Signature: _____________________________</t>
+  </si>
+  <si>
+    <t>Name of the Invigilator - 2: _____________________________ Employee Code: _____________________________ Signature: _____________________________</t>
+  </si>
+  <si>
+    <t>DM-102</t>
+  </si>
+  <si>
+    <t>Col 5</t>
+  </si>
+  <si>
+    <t>CSE006</t>
+  </si>
+  <si>
+    <t>ECE005</t>
+  </si>
+  <si>
+    <t>ME005</t>
+  </si>
+  <si>
+    <t>CSE013</t>
+  </si>
+  <si>
+    <t>ECE008</t>
+  </si>
+  <si>
+    <t>CSE007</t>
+  </si>
+  <si>
+    <t>ECE006</t>
+  </si>
+  <si>
+    <t>ME006</t>
+  </si>
+  <si>
+    <t>CSE014</t>
+  </si>
+  <si>
+    <t>ECE009</t>
+  </si>
+  <si>
+    <t>CSE008</t>
+  </si>
+  <si>
+    <t>ECE007</t>
+  </si>
+  <si>
+    <t>ME007</t>
+  </si>
+  <si>
+    <t>CSE015</t>
+  </si>
+  <si>
+    <t>ECE010</t>
+  </si>
+  <si>
+    <t>CSE009</t>
+  </si>
+  <si>
+    <t>ME008</t>
+  </si>
+  <si>
     <t>---</t>
   </si>
   <si>
-    <t>ECE004</t>
-  </si>
-  <si>
-    <t>ME004</t>
-  </si>
-  <si>
-    <t>Branch</t>
-  </si>
-  <si>
-    <t>Appearing</t>
-  </si>
-  <si>
-    <t>Subject</t>
-  </si>
-  <si>
-    <t>CS-101</t>
-  </si>
-  <si>
-    <t>EC-101</t>
-  </si>
-  <si>
-    <t>ME-101</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>UMC Roll Number (if any): _____________________________ Absent Roll Number : _____________________________ Remarks: _____________________________</t>
-  </si>
-  <si>
-    <t>Name of the Invigilator - 1: _____________________________ Employee Code: _____________________________ Signature: _____________________________</t>
-  </si>
-  <si>
-    <t>Name of the Invigilator - 2: _____________________________ Employee Code: _____________________________ Signature: _____________________________</t>
-  </si>
-  <si>
-    <t>DM-102</t>
-  </si>
-  <si>
-    <t>CSE006</t>
-  </si>
-  <si>
-    <t>ECE005</t>
-  </si>
-  <si>
-    <t>ME005</t>
-  </si>
-  <si>
-    <t>CSE007</t>
-  </si>
-  <si>
-    <t>ECE006</t>
-  </si>
-  <si>
-    <t>ME006</t>
-  </si>
-  <si>
-    <t>CSE008</t>
-  </si>
-  <si>
-    <t>ECE007</t>
-  </si>
-  <si>
-    <t>ME007</t>
-  </si>
-  <si>
-    <t>CSE009</t>
-  </si>
-  <si>
-    <t>ECE008</t>
-  </si>
-  <si>
-    <t>ME008</t>
-  </si>
-  <si>
     <t>CSE010</t>
   </si>
   <si>
-    <t>ECE009</t>
+    <t>ME009</t>
   </si>
   <si>
     <t>CSE011</t>
+  </si>
+  <si>
+    <t>ME010</t>
   </si>
   <si>
     <t>CSE012</t>
@@ -260,7 +281,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +298,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -896,36 +920,36 @@
       <c r="D18" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>31</v>
+      <c r="E18" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="D19" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>31</v>
+      <c r="E19" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="20" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="C21" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,7 +960,7 @@
         <v>5</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,7 +971,7 @@
         <v>4</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,23 +982,23 @@
         <v>4</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="B25" s="8">
+      <c r="B25" s="9">
         <v>13</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -991,7 +1015,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
@@ -1008,7 +1032,7 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
@@ -1051,14 +1075,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:N32"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="4" width="15" customWidth="1"/>
+    <col min="2" max="6" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1073,8 +1097,10 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1089,8 +1115,10 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+    </row>
+    <row r="3" ht="20" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1105,8 +1133,10 @@
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-    </row>
-    <row r="4" ht="12" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+    </row>
+    <row r="4" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -1121,8 +1151,10 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-    </row>
-    <row r="5" ht="12" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
@@ -1137,8 +1169,10 @@
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-    </row>
-    <row r="6" ht="12" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
@@ -1153,8 +1187,10 @@
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-    </row>
-    <row r="7" ht="12" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
@@ -1169,8 +1205,10 @@
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-    </row>
-    <row r="8" ht="12" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+    </row>
+    <row r="8" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1185,8 +1223,10 @@
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
-    </row>
-    <row r="9" ht="12" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+    </row>
+    <row r="9" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
@@ -1201,8 +1241,10 @@
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-    </row>
-    <row r="10" ht="12" customHeight="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" ht="12" customHeight="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
@@ -1217,21 +1259,25 @@
       <c r="J10" s="4"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
     </row>
     <row r="11" ht="20" customHeight="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="14" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="14" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>12</v>
       </c>
@@ -1244,8 +1290,14 @@
       <c r="D14" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" ht="20" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" ht="20" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>10</v>
       </c>
@@ -1258,8 +1310,14 @@
       <c r="D15" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
         <v>1</v>
       </c>
@@ -1272,100 +1330,142 @@
       <c r="D16" s="7" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <v>2</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
         <v>3</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <v>4</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <v>5</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <v>6</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>31</v>
+        <v>65</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>7</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>31</v>
+        <v>67</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>10</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>31</v>
+        <v>62</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="24" ht="20" customHeight="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="C24" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -1373,10 +1473,10 @@
         <v>17</v>
       </c>
       <c r="B25" s="7">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -1384,10 +1484,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -1395,26 +1495,26 @@
         <v>19</v>
       </c>
       <c r="B27" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
+      <c r="B28" s="9">
+        <v>22</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>40</v>
-      </c>
-      <c r="B28" s="8">
-        <v>16</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>41</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
@@ -1427,10 +1527,12 @@
       <c r="J30"/>
       <c r="K30"/>
       <c r="L30"/>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M30"/>
+      <c r="N30"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -1443,10 +1545,12 @@
       <c r="J31"/>
       <c r="K31"/>
       <c r="L31"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M31"/>
+      <c r="N31"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32"/>
       <c r="C32"/>
@@ -1459,23 +1563,25 @@
       <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
+      <c r="M32"/>
+      <c r="N32"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="A2:L2"/>
-    <mergeCell ref="A3:L3"/>
-    <mergeCell ref="A4:L4"/>
-    <mergeCell ref="A5:L5"/>
-    <mergeCell ref="A6:L6"/>
-    <mergeCell ref="A7:L7"/>
-    <mergeCell ref="A8:L8"/>
-    <mergeCell ref="A9:L9"/>
-    <mergeCell ref="A10:L10"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A30:L30"/>
-    <mergeCell ref="A31:L31"/>
-    <mergeCell ref="A32:L32"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="A3:N3"/>
+    <mergeCell ref="A4:N4"/>
+    <mergeCell ref="A5:N5"/>
+    <mergeCell ref="A6:N6"/>
+    <mergeCell ref="A7:N7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A32:N32"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
